--- a/practice/practice.xlsx
+++ b/practice/practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539134A7-45F2-4935-82AC-197AF5A90561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7C281-CAC2-4A7E-AFC7-FD7FE90189F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
-    <pivotCache cacheId="11" r:id="rId8"/>
-    <pivotCache cacheId="14" r:id="rId9"/>
-    <pivotCache cacheId="17" r:id="rId10"/>
-    <pivotCache cacheId="20" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1106,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1122,15 +1122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1761,6 +1759,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1805,6 +1812,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1849,6 +1865,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1893,6 +1918,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1937,6 +1971,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1981,6 +2024,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -2523,7 +2575,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2660,7 +2711,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8833,8 +8883,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Treatment 1">
@@ -8857,7 +8907,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8987,8 +9037,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>132954</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Patient ID 1">
@@ -9011,7 +9061,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9103,8 +9153,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>165553</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="TOTAL_TEST 1">
@@ -9127,7 +9177,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9222,8 +9272,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Patient ID">
@@ -9246,7 +9296,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9341,8 +9391,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="TOTAL_TEST">
@@ -9365,7 +9415,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11732,7 +11782,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C6DA324-70BB-4148-AF52-87162FB685FF}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C6DA324-70BB-4148-AF52-87162FB685FF}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0">
@@ -12351,7 +12401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69233DA6-F990-411F-8EA4-20E5136F1E89}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69233DA6-F990-411F-8EA4-20E5136F1E89}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -12496,7 +12546,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{147B2250-7525-4564-BDA1-9ADEDD9D582D}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{147B2250-7525-4564-BDA1-9ADEDD9D582D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A1:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -12664,7 +12714,70 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EE93405-9793-4664-B7B1-EC608777DF95}" name="PivotTable10" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15A2AF61-6B74-4F54-8EEB-4283787C2443}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q7:T11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of MEAN " fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of MODE" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of MEDIAN" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EE93405-9793-4664-B7B1-EC608777DF95}" name="PivotTable10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB7:AE9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12718,8 +12831,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C16A71EF-56EE-47ED-957C-0D5C10D8C89F}" name="PivotTable8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C16A71EF-56EE-47ED-957C-0D5C10D8C89F}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V7:Y11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12768,69 +12881,6 @@
     <dataField name="Sum of SUM" fld="0" baseField="0" baseItem="0"/>
     <dataField name="Sum of SUMIF" fld="1" baseField="0" baseItem="0"/>
     <dataField name="Sum of SUMIFS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15A2AF61-6B74-4F54-8EEB-4283787C2443}" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Q7:T11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of MEAN " fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Sum of MODE" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of MEDIAN" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -13272,7 +13322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13876,7 +13926,7 @@
       <c r="A4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
@@ -13884,7 +13934,7 @@
       <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
@@ -13892,7 +13942,7 @@
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
@@ -13900,7 +13950,7 @@
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
@@ -13908,7 +13958,7 @@
       <c r="A8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
@@ -13916,7 +13966,7 @@
       <c r="A9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
@@ -13924,7 +13974,7 @@
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
@@ -13932,7 +13982,7 @@
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>3</v>
       </c>
     </row>
@@ -13940,7 +13990,7 @@
       <c r="A12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
@@ -13948,7 +13998,7 @@
       <c r="A13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
@@ -13956,7 +14006,7 @@
       <c r="A14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -13964,7 +14014,7 @@
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -13972,7 +14022,7 @@
       <c r="A16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>12</v>
       </c>
     </row>
@@ -13991,18 +14041,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B394430-8CAB-44D3-8D17-EA3BD956900D}">
-  <dimension ref="A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="53" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -14057,10 +14103,10 @@
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
@@ -14068,10 +14114,10 @@
       <c r="A3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
@@ -14117,10 +14163,10 @@
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2">
         <v>6</v>
       </c>
     </row>
@@ -14128,10 +14174,10 @@
       <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <v>4</v>
       </c>
     </row>
@@ -14139,10 +14185,10 @@
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>12</v>
       </c>
     </row>
@@ -14150,10 +14196,10 @@
       <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
@@ -14161,10 +14207,10 @@
       <c r="A6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
@@ -14172,10 +14218,10 @@
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
@@ -14183,10 +14229,10 @@
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <v>3</v>
       </c>
     </row>
@@ -14194,10 +14240,10 @@
       <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>6</v>
       </c>
     </row>
@@ -14205,10 +14251,10 @@
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>3</v>
       </c>
     </row>
@@ -14216,10 +14262,10 @@
       <c r="A11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11">
         <v>10</v>
       </c>
     </row>
@@ -14227,10 +14273,10 @@
       <c r="A12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>52</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12">
         <v>54</v>
       </c>
     </row>
@@ -14337,12 +14383,12 @@
       <c r="Y1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
       <c r="AG1" t="s">
         <v>134</v>
       </c>
@@ -14380,11 +14426,11 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2021,1,4),DATE(2021,12,31))</f>
-        <v>44388</v>
+        <v>44437</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">F2+5</f>
-        <v>44393</v>
+        <v>44442</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -14475,11 +14521,11 @@
       </c>
       <c r="F3" s="1">
         <f ca="1">RANDBETWEEN(DATE(2021,1,4),DATE(2021,12,31))</f>
-        <v>44551</v>
+        <v>44388</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G51" ca="1" si="1">F3+5</f>
-        <v>44556</v>
+        <v>44393</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -14572,11 +14618,11 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F51" ca="1" si="2">RANDBETWEEN(DATE(2021,1,4),DATE(2021,12,31))</f>
-        <v>44359</v>
+        <v>44282</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44364</v>
+        <v>44287</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -14657,11 +14703,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44323</v>
+        <v>44363</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44328</v>
+        <v>44368</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
@@ -14712,11 +14758,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44372</v>
+        <v>44266</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44377</v>
+        <v>44271</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -14767,11 +14813,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44442</v>
+        <v>44214</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44447</v>
+        <v>44219</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -14858,11 +14904,11 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44326</v>
+        <v>44433</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44438</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -14885,37 +14931,37 @@
       <c r="Q8" s="7">
         <v>5</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8">
         <v>3.5</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8">
         <v>5</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8">
         <v>3</v>
       </c>
       <c r="V8" s="7">
         <v>175</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8">
         <v>175</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8">
         <v>59467</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8">
         <v>6</v>
       </c>
       <c r="AB8" s="7">
         <v>300</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8">
         <v>300</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8">
         <v>612</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8">
         <v>3</v>
       </c>
       <c r="AG8" t="b">
@@ -14949,11 +14995,11 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44442</v>
+        <v>44506</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44447</v>
+        <v>44511</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -14977,37 +15023,37 @@
       <c r="Q9" s="7">
         <v>8</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9">
         <v>4.74</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9">
         <v>5</v>
       </c>
       <c r="V9" s="7">
         <v>237</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9">
         <v>237</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9">
         <v>36674</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9">
         <v>16</v>
       </c>
       <c r="AB9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9">
         <v>300</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9">
         <v>612</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9">
         <v>3</v>
       </c>
       <c r="AG9" t="b">
@@ -15041,11 +15087,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44349</v>
+        <v>44235</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44354</v>
+        <v>44240</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -15068,25 +15114,25 @@
       <c r="Q10" s="7">
         <v>11</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10">
         <v>8.24</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10">
         <v>11</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10">
         <v>8.5</v>
       </c>
       <c r="V10" s="7">
         <v>412</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10">
         <v>412</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10">
         <v>18378</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10">
         <v>22</v>
       </c>
       <c r="AG10" t="b">
@@ -15120,11 +15166,11 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44333</v>
+        <v>44406</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44338</v>
+        <v>44411</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -15147,25 +15193,25 @@
       <c r="Q11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11">
         <v>16.48</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11">
         <v>24</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11">
         <v>16.5</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11">
         <v>824</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11">
         <v>114519</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11">
         <v>44</v>
       </c>
       <c r="AG11" t="b">
@@ -15199,11 +15245,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44413</v>
+        <v>44431</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44418</v>
+        <v>44436</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -15254,11 +15300,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44415</v>
+        <v>44401</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -15309,11 +15355,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44472</v>
+        <v>44303</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44477</v>
+        <v>44308</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -15364,11 +15410,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44411</v>
+        <v>44503</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44416</v>
+        <v>44508</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
@@ -15388,43 +15434,43 @@
       <c r="M15" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>4</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="W15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AA15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="AG15" t="b">
@@ -15458,11 +15504,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44300</v>
+        <v>44509</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44305</v>
+        <v>44514</v>
       </c>
       <c r="H16" t="s">
         <v>48</v>
@@ -15504,11 +15550,11 @@
       </c>
       <c r="U16">
         <f ca="1">VLOOKUP(P15,Table2[#All],6,0)</f>
-        <v>44323</v>
+        <v>44363</v>
       </c>
       <c r="V16">
         <f ca="1">VLOOKUP(P15,Table2[#All],7,0)</f>
-        <v>44328</v>
+        <v>44368</v>
       </c>
       <c r="W16" t="str">
         <f>VLOOKUP(P15,Table2[#All],8,0)</f>
@@ -15565,11 +15611,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44508</v>
+        <v>44242</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44513</v>
+        <v>44247</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
@@ -15620,11 +15666,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44346</v>
+        <v>44287</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
@@ -15644,10 +15690,10 @@
       <c r="M18" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
       <c r="AG18" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15679,11 +15725,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44476</v>
+        <v>44400</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44481</v>
+        <v>44405</v>
       </c>
       <c r="H19" t="s">
         <v>33</v>
@@ -15734,11 +15780,11 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44527</v>
+        <v>44205</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44532</v>
+        <v>44210</v>
       </c>
       <c r="H20" t="s">
         <v>38</v>
@@ -15789,11 +15835,11 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44523</v>
+        <v>44468</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44528</v>
+        <v>44473</v>
       </c>
       <c r="H21" t="s">
         <v>48</v>
@@ -15844,11 +15890,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44215</v>
+        <v>44303</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44220</v>
+        <v>44308</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
@@ -15899,11 +15945,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44318</v>
+        <v>44369</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44323</v>
+        <v>44374</v>
       </c>
       <c r="H23" t="s">
         <v>27</v>
@@ -15954,11 +16000,11 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44332</v>
+        <v>44481</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44337</v>
+        <v>44486</v>
       </c>
       <c r="H24" t="s">
         <v>33</v>
@@ -16009,11 +16055,11 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44324</v>
+        <v>44423</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44329</v>
+        <v>44428</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -16033,10 +16079,10 @@
       <c r="M25" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
       <c r="AG25" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16068,11 +16114,11 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44362</v>
+        <v>44311</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
@@ -16123,11 +16169,11 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44379</v>
+        <v>44510</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44384</v>
+        <v>44515</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
@@ -16178,11 +16224,11 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44329</v>
+        <v>44219</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44334</v>
+        <v>44224</v>
       </c>
       <c r="H28" t="s">
         <v>48</v>
@@ -16233,11 +16279,11 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44298</v>
+        <v>44417</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44303</v>
+        <v>44422</v>
       </c>
       <c r="H29" t="s">
         <v>38</v>
@@ -16288,11 +16334,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44538</v>
+        <v>44349</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44543</v>
+        <v>44354</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
@@ -16343,11 +16389,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44408</v>
+        <v>44321</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44413</v>
+        <v>44326</v>
       </c>
       <c r="H31" t="s">
         <v>48</v>
@@ -16398,11 +16444,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44336</v>
+        <v>44211</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44341</v>
+        <v>44216</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
@@ -16453,11 +16499,11 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44426</v>
+        <v>44334</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44431</v>
+        <v>44339</v>
       </c>
       <c r="H33" t="s">
         <v>38</v>
@@ -16508,11 +16554,11 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44359</v>
+        <v>44212</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44364</v>
+        <v>44217</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
@@ -16563,11 +16609,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44289</v>
+        <v>44254</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44294</v>
+        <v>44259</v>
       </c>
       <c r="H35" t="s">
         <v>27</v>
@@ -16618,11 +16664,11 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44418</v>
+        <v>44413</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44423</v>
+        <v>44418</v>
       </c>
       <c r="H36" t="s">
         <v>33</v>
@@ -16673,11 +16719,11 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44256</v>
+        <v>44507</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44261</v>
+        <v>44512</v>
       </c>
       <c r="H37" t="s">
         <v>48</v>
@@ -16728,11 +16774,11 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44525</v>
+        <v>44256</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44530</v>
+        <v>44261</v>
       </c>
       <c r="H38" t="s">
         <v>27</v>
@@ -16783,11 +16829,11 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
@@ -16838,11 +16884,11 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44273</v>
+        <v>44483</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44278</v>
+        <v>44488</v>
       </c>
       <c r="H40" t="s">
         <v>48</v>
@@ -16893,11 +16939,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44340</v>
+        <v>44532</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44345</v>
+        <v>44537</v>
       </c>
       <c r="H41" t="s">
         <v>21</v>
@@ -16948,11 +16994,11 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44360</v>
+        <v>44397</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44365</v>
+        <v>44402</v>
       </c>
       <c r="H42" t="s">
         <v>27</v>
@@ -17003,11 +17049,11 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44383</v>
+        <v>44219</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44388</v>
+        <v>44224</v>
       </c>
       <c r="H43" t="s">
         <v>33</v>
@@ -17058,11 +17104,11 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44474</v>
+        <v>44471</v>
       </c>
       <c r="H44" t="s">
         <v>33</v>
@@ -17113,11 +17159,11 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44371</v>
+        <v>44424</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44376</v>
+        <v>44429</v>
       </c>
       <c r="H45" t="s">
         <v>48</v>
@@ -17168,11 +17214,11 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44315</v>
+        <v>44241</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44320</v>
+        <v>44246</v>
       </c>
       <c r="H46" t="s">
         <v>27</v>
@@ -17223,11 +17269,11 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44238</v>
+        <v>44554</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44243</v>
+        <v>44559</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
@@ -17278,11 +17324,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44451</v>
+        <v>44437</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44456</v>
+        <v>44442</v>
       </c>
       <c r="H48" t="s">
         <v>48</v>
@@ -17333,11 +17379,11 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44554</v>
+        <v>44363</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44559</v>
+        <v>44368</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
@@ -17388,11 +17434,11 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44298</v>
+        <v>44303</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44303</v>
+        <v>44308</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
@@ -17443,11 +17489,11 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44476</v>
+        <v>44225</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44481</v>
+        <v>44230</v>
       </c>
       <c r="H51" t="s">
         <v>48</v>
